--- a/Enrollproject/xianchang.xlsx
+++ b/Enrollproject/xianchang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6592">
   <si>
     <t>姓名</t>
   </si>
@@ -19770,6 +19770,27 @@
   </si>
   <si>
     <t>2018-11-03 19:11:51</t>
+  </si>
+  <si>
+    <t>5655666</t>
+  </si>
+  <si>
+    <t>19343733737</t>
+  </si>
+  <si>
+    <t>609195629</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>2018-11-11 10:09:11</t>
   </si>
 </sst>
 </file>
@@ -20109,7 +20130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1434"/>
+  <dimension ref="A1:N1435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83229,6 +83250,50 @@
         <v>6584</v>
       </c>
     </row>
+    <row r="1435" spans="1:14">
+      <c r="A1435" s="1" t="s">
+        <v>6585</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1435" s="1" t="s">
+        <v>6586</v>
+      </c>
+      <c r="D1435" s="1" t="s">
+        <v>6587</v>
+      </c>
+      <c r="E1435" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1435" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1435" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1435" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1435" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1435" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1435" s="1" t="s">
+        <v>6588</v>
+      </c>
+      <c r="L1435" s="1" t="s">
+        <v>6589</v>
+      </c>
+      <c r="M1435" s="1" t="s">
+        <v>6590</v>
+      </c>
+      <c r="N1435" s="1" t="s">
+        <v>6591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Enrollproject/xianchang.xlsx
+++ b/Enrollproject/xianchang.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="文都考研现场确认报名表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="文都考研现场确认报名表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
